--- a/predictions_table_T.xlsx
+++ b/predictions_table_T.xlsx
@@ -488,13 +488,13 @@
         <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>7.140000000000001</v>
+        <v>-54.64284229957019</v>
       </c>
       <c r="F2" t="n">
-        <v>5.825993889032536</v>
+        <v>-70.40013943216088</v>
       </c>
       <c r="G2" t="n">
-        <v>10.15660633618675</v>
+        <v>-18.46830553401978</v>
       </c>
     </row>
     <row r="3">
@@ -511,13 +511,13 @@
         <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>6.480000000000001</v>
+        <v>-62.55742962203915</v>
       </c>
       <c r="F3" t="n">
-        <v>5.309091975681374</v>
+        <v>-76.59872326605341</v>
       </c>
       <c r="G3" t="n">
-        <v>11.05945589428308</v>
+        <v>-7.641515130071449</v>
       </c>
     </row>
     <row r="4">
@@ -534,13 +534,13 @@
         <v>19</v>
       </c>
       <c r="E4" t="n">
-        <v>9.460000000000001</v>
+        <v>-26.82186868119437</v>
       </c>
       <c r="F4" t="n">
-        <v>8.75054753128309</v>
+        <v>-35.32948006725678</v>
       </c>
       <c r="G4" t="n">
-        <v>9.740699960096586</v>
+        <v>-23.45577118786409</v>
       </c>
     </row>
     <row r="5">
@@ -557,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>3.489999999999996</v>
+        <v>-98.4129085526184</v>
       </c>
       <c r="F5" t="n">
-        <v>3.64972967333325</v>
+        <v>-96.49746241991311</v>
       </c>
       <c r="G5" t="n">
-        <v>10.27714528393829</v>
+        <v>-17.02282670411356</v>
       </c>
     </row>
     <row r="6">
@@ -580,13 +580,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>6.23</v>
+        <v>-65.55537936539864</v>
       </c>
       <c r="F6" t="n">
-        <v>10.59933517481747</v>
+        <v>-13.15919030141655</v>
       </c>
       <c r="G6" t="n">
-        <v>10.06991344587791</v>
+        <v>-19.50790924702973</v>
       </c>
     </row>
     <row r="7">
@@ -603,13 +603,13 @@
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>7.25</v>
+        <v>-53.32374441249203</v>
       </c>
       <c r="F7" t="n">
-        <v>8.181445729140831</v>
+        <v>-42.15403447396794</v>
       </c>
       <c r="G7" t="n">
-        <v>10.28962719333522</v>
+        <v>-16.87314615582102</v>
       </c>
     </row>
     <row r="8">
@@ -626,13 +626,13 @@
         <v>36</v>
       </c>
       <c r="E8" t="n">
-        <v>30.26000000000001</v>
+        <v>222.607549966313</v>
       </c>
       <c r="F8" t="n">
-        <v>20.3510083965314</v>
+        <v>103.7809146280339</v>
       </c>
       <c r="G8" t="n">
-        <v>10.97224852683958</v>
+        <v>-8.687288349456667</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="n">
-        <v>5.550000000000002</v>
+        <v>-73.70980266733635</v>
       </c>
       <c r="F9" t="n">
-        <v>6.282522131596825</v>
+        <v>-64.92554452163306</v>
       </c>
       <c r="G9" t="n">
-        <v>10.30531700958385</v>
+        <v>-16.68499703343726</v>
       </c>
     </row>
     <row r="10">
@@ -672,13 +672,13 @@
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>14.06</v>
+        <v>28.34040659661978</v>
       </c>
       <c r="F10" t="n">
-        <v>20.32543339632695</v>
+        <v>103.4742243668365</v>
       </c>
       <c r="G10" t="n">
-        <v>10.31551432745039</v>
+        <v>-16.56271284751343</v>
       </c>
     </row>
     <row r="11">
@@ -695,13 +695,13 @@
         <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>9.139999999999999</v>
+        <v>-30.6592443526945</v>
       </c>
       <c r="F11" t="n">
-        <v>7.202834366327128</v>
+        <v>-53.88934520995193</v>
       </c>
       <c r="G11" t="n">
-        <v>10.23346787594928</v>
+        <v>-17.54659740039864</v>
       </c>
     </row>
     <row r="12">
@@ -718,13 +718,13 @@
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>6.140000000000001</v>
+        <v>-66.63464127300803</v>
       </c>
       <c r="F12" t="n">
-        <v>5.177015740864227</v>
+        <v>-78.18255492314923</v>
       </c>
       <c r="G12" t="n">
-        <v>9.948523658781722</v>
+        <v>-20.96359117131563</v>
       </c>
     </row>
     <row r="13">
@@ -741,13 +741,13 @@
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>6.600000000000005</v>
+        <v>-61.11841374522658</v>
       </c>
       <c r="F13" t="n">
-        <v>7.272524243671731</v>
+        <v>-53.05363821035191</v>
       </c>
       <c r="G13" t="n">
-        <v>10.55831428384799</v>
+        <v>-13.65110457963398</v>
       </c>
     </row>
     <row r="14">
@@ -764,13 +764,13 @@
         <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>13.22</v>
+        <v>18.26729545893193</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66357832156263</v>
+        <v>23.58659752008593</v>
       </c>
       <c r="G14" t="n">
-        <v>11.06162489622156</v>
+        <v>-7.615504894852155</v>
       </c>
     </row>
     <row r="15">
@@ -787,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="E15" t="n">
-        <v>5.749999999999997</v>
+        <v>-71.31144287264884</v>
       </c>
       <c r="F15" t="n">
-        <v>4.765629156720339</v>
+        <v>-83.11582014057198</v>
       </c>
       <c r="G15" t="n">
-        <v>10.24641744987347</v>
+        <v>-17.39130871310813</v>
       </c>
     </row>
     <row r="16">
@@ -810,13 +810,13 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>11.49</v>
+        <v>-2.478516765115536</v>
       </c>
       <c r="F16" t="n">
-        <v>7.866683910781743</v>
+        <v>-45.92859492424387</v>
       </c>
       <c r="G16" t="n">
-        <v>7.535932832903304</v>
+        <v>-49.89489536041002</v>
       </c>
     </row>
     <row r="17">
@@ -833,13 +833,13 @@
         <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>5.500000000000005</v>
+        <v>-74.30939261600821</v>
       </c>
       <c r="F17" t="n">
-        <v>4.756966879416423</v>
+        <v>-83.21969642865272</v>
       </c>
       <c r="G17" t="n">
-        <v>10.13995694538555</v>
+        <v>-18.66796168153797</v>
       </c>
     </row>
     <row r="18">
@@ -856,13 +856,13 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
-        <v>6.850000000000007</v>
+        <v>-58.12046400186709</v>
       </c>
       <c r="F18" t="n">
-        <v>7.30664264314299</v>
+        <v>-52.64449722259712</v>
       </c>
       <c r="G18" t="n">
-        <v>10.81651936842239</v>
+        <v>-10.55476111149816</v>
       </c>
     </row>
     <row r="19">
@@ -879,13 +879,13 @@
         <v>14</v>
       </c>
       <c r="E19" t="n">
-        <v>6.040000000000003</v>
+        <v>-67.8338211703518</v>
       </c>
       <c r="F19" t="n">
-        <v>6.329497126961917</v>
+        <v>-64.3622298204367</v>
       </c>
       <c r="G19" t="n">
-        <v>10.48927713572114</v>
+        <v>-14.47898418167058</v>
       </c>
     </row>
     <row r="20">
@@ -902,13 +902,13 @@
         <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>16.86</v>
+        <v>61.91744372224569</v>
       </c>
       <c r="F20" t="n">
-        <v>15.84727963501674</v>
+        <v>49.77310468905989</v>
       </c>
       <c r="G20" t="n">
-        <v>13.43278098437849</v>
+        <v>20.81892224896896</v>
       </c>
     </row>
     <row r="21">
@@ -925,13 +925,13 @@
         <v>7</v>
       </c>
       <c r="E21" t="n">
-        <v>7.720000000000002</v>
+        <v>-47.6875988949762</v>
       </c>
       <c r="F21" t="n">
-        <v>8.501136922314899</v>
+        <v>-38.32036195184602</v>
       </c>
       <c r="G21" t="n">
-        <v>10.47888313304998</v>
+        <v>-14.60362697223244</v>
       </c>
     </row>
     <row r="22">
@@ -948,13 +948,13 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>9.369999999999999</v>
+        <v>-27.9011305888038</v>
       </c>
       <c r="F22" t="n">
-        <v>9.714405246067043</v>
+        <v>-23.77109211257041</v>
       </c>
       <c r="G22" t="n">
-        <v>12.64680974725621</v>
+        <v>11.39371317449432</v>
       </c>
     </row>
     <row r="23">
@@ -971,13 +971,13 @@
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>6.289999999999999</v>
+        <v>-64.83587142699238</v>
       </c>
       <c r="F23" t="n">
-        <v>3.118858647312794</v>
+        <v>-102.8635610447731</v>
       </c>
       <c r="G23" t="n">
-        <v>10.29681977929289</v>
+        <v>-16.78689411091747</v>
       </c>
     </row>
     <row r="24">
@@ -994,13 +994,13 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>8.020000000000007</v>
+        <v>-44.09005920294481</v>
       </c>
       <c r="F24" t="n">
-        <v>6.36615102755936</v>
+        <v>-63.92268361287979</v>
       </c>
       <c r="G24" t="n">
-        <v>9.672354640650498</v>
+        <v>-24.27535451943697</v>
       </c>
     </row>
     <row r="25">
@@ -1017,13 +1017,13 @@
         <v>7</v>
       </c>
       <c r="E25" t="n">
-        <v>6.690000000000003</v>
+        <v>-60.0391518376172</v>
       </c>
       <c r="F25" t="n">
-        <v>4.999602422918079</v>
+        <v>-80.31005976717003</v>
       </c>
       <c r="G25" t="n">
-        <v>9.636807637206903</v>
+        <v>-24.70162703884067</v>
       </c>
     </row>
     <row r="26">
@@ -1040,13 +1040,13 @@
         <v>26</v>
       </c>
       <c r="E26" t="n">
-        <v>17.61000000000001</v>
+        <v>70.91129295232417</v>
       </c>
       <c r="F26" t="n">
-        <v>16.50940988986167</v>
+        <v>57.71323759939149</v>
       </c>
       <c r="G26" t="n">
-        <v>12.08435774349432</v>
+        <v>4.648901813174476</v>
       </c>
     </row>
     <row r="27">
@@ -1063,13 +1063,13 @@
         <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>13.02</v>
+        <v>15.86893566424435</v>
       </c>
       <c r="F27" t="n">
-        <v>11.19655080718326</v>
+        <v>-5.997500494291539</v>
       </c>
       <c r="G27" t="n">
-        <v>10.42822834584316</v>
+        <v>-15.21106899745898</v>
       </c>
     </row>
     <row r="28">
@@ -1086,13 +1086,13 @@
         <v>9</v>
       </c>
       <c r="E28" t="n">
-        <v>11.81</v>
+        <v>1.358858906384576</v>
       </c>
       <c r="F28" t="n">
-        <v>8.859069852273796</v>
+        <v>-34.02810220980533</v>
       </c>
       <c r="G28" t="n">
-        <v>11.15176262989579</v>
+        <v>-6.534591312709523</v>
       </c>
     </row>
     <row r="29">
@@ -1109,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>14.24</v>
+        <v>30.49893041183858</v>
       </c>
       <c r="F29" t="n">
-        <v>16.40702571869661</v>
+        <v>56.48546720071795</v>
       </c>
       <c r="G29" t="n">
-        <v>10.01271357379641</v>
+        <v>-20.19383861433744</v>
       </c>
     </row>
     <row r="30">
@@ -1132,13 +1132,13 @@
         <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>27.89</v>
+        <v>194.1869863992653</v>
       </c>
       <c r="F30" t="n">
-        <v>18.01960925349868</v>
+        <v>75.82324477794025</v>
       </c>
       <c r="G30" t="n">
-        <v>13.41896219851625</v>
+        <v>20.653210146852</v>
       </c>
     </row>
     <row r="31">
@@ -1155,13 +1155,13 @@
         <v>60</v>
       </c>
       <c r="E31" t="n">
-        <v>37.47000000000006</v>
+        <v>309.0684205648005</v>
       </c>
       <c r="F31" t="n">
-        <v>43.44350389319371</v>
+        <v>380.7014784190271</v>
       </c>
       <c r="G31" t="n">
-        <v>10.36285290074431</v>
+        <v>-15.99503819288337</v>
       </c>
     </row>
     <row r="32">
@@ -1178,13 +1178,13 @@
         <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>12.43</v>
+        <v>8.793774269916035</v>
       </c>
       <c r="F32" t="n">
-        <v>11.18053850833086</v>
+        <v>-6.189516763232032</v>
       </c>
       <c r="G32" t="n">
-        <v>9.76100805215529</v>
+        <v>-23.21224063036205</v>
       </c>
     </row>
     <row r="33">
@@ -1201,13 +1201,13 @@
         <v>3</v>
       </c>
       <c r="E33" t="n">
-        <v>13.4</v>
+        <v>20.42581927415072</v>
       </c>
       <c r="F33" t="n">
-        <v>15.0548497187939</v>
+        <v>40.27044443317742</v>
       </c>
       <c r="G33" t="n">
-        <v>11.27183415351399</v>
+        <v>-5.094717739045642</v>
       </c>
     </row>
     <row r="34">
@@ -1224,13 +1224,13 @@
         <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>17.99000000000001</v>
+        <v>75.46817656223057</v>
       </c>
       <c r="F34" t="n">
-        <v>12.86293594127274</v>
+        <v>13.98545504603488</v>
       </c>
       <c r="G34" t="n">
-        <v>17.2510003564478</v>
+        <v>66.60624139531025</v>
       </c>
     </row>
     <row r="35">
@@ -1247,13 +1247,13 @@
         <v>23</v>
       </c>
       <c r="E35" t="n">
-        <v>15.12</v>
+        <v>41.05171350846386</v>
       </c>
       <c r="F35" t="n">
-        <v>13.66357832156263</v>
+        <v>23.58659752008593</v>
       </c>
       <c r="G35" t="n">
-        <v>10.97315587857252</v>
+        <v>-8.676407569876982</v>
       </c>
     </row>
     <row r="36">
@@ -1270,13 +1270,13 @@
         <v>15</v>
       </c>
       <c r="E36" t="n">
-        <v>29.85000000000001</v>
+        <v>217.6909123872036</v>
       </c>
       <c r="F36" t="n">
-        <v>28.87839829620317</v>
+        <v>206.0396600730221</v>
       </c>
       <c r="G36" t="n">
-        <v>10.75698411939173</v>
+        <v>-11.26869584970743</v>
       </c>
     </row>
     <row r="37">
@@ -1293,13 +1293,13 @@
         <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>8.020000000000001</v>
+        <v>-44.09005920294487</v>
       </c>
       <c r="F37" t="n">
-        <v>8.693405921575877</v>
+        <v>-36.0147107638843</v>
       </c>
       <c r="G37" t="n">
-        <v>10.71682959301822</v>
+        <v>-11.75022085785218</v>
       </c>
     </row>
     <row r="38">
@@ -1316,13 +1316,13 @@
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>6.110000000000003</v>
+        <v>-66.99439524221114</v>
       </c>
       <c r="F38" t="n">
-        <v>5.383607323872206</v>
+        <v>-75.70515019011324</v>
       </c>
       <c r="G38" t="n">
-        <v>10.26183837097408</v>
+        <v>-17.20638412728432</v>
       </c>
     </row>
     <row r="39">
@@ -1339,13 +1339,13 @@
         <v>27</v>
       </c>
       <c r="E39" t="n">
-        <v>14.81</v>
+        <v>37.33425582669815</v>
       </c>
       <c r="F39" t="n">
-        <v>9.760918938668373</v>
+        <v>-23.21330926138297</v>
       </c>
       <c r="G39" t="n">
-        <v>10.0955008934878</v>
+        <v>-19.20106971904853</v>
       </c>
     </row>
     <row r="40">
@@ -1362,13 +1362,13 @@
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>8.219999999999999</v>
+        <v>-41.69169940825732</v>
       </c>
       <c r="F40" t="n">
-        <v>6.771484298124109</v>
+        <v>-59.06200851502122</v>
       </c>
       <c r="G40" t="n">
-        <v>10.40762663686758</v>
+        <v>-15.45812055000331</v>
       </c>
     </row>
     <row r="41">
@@ -1385,13 +1385,13 @@
         <v>10</v>
       </c>
       <c r="E41" t="n">
-        <v>8.709999999999997</v>
+        <v>-35.81571791127278</v>
       </c>
       <c r="F41" t="n">
-        <v>6.977758662728807</v>
+        <v>-56.58840780130808</v>
       </c>
       <c r="G41" t="n">
-        <v>15.83811751592005</v>
+        <v>49.66323439868171</v>
       </c>
     </row>
     <row r="42">
@@ -1408,13 +1408,13 @@
         <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>10.74</v>
+        <v>-11.47236599519393</v>
       </c>
       <c r="F42" t="n">
-        <v>10.79708185436106</v>
+        <v>-10.78785187266501</v>
       </c>
       <c r="G42" t="n">
-        <v>13.96099002682124</v>
+        <v>27.15309890189456</v>
       </c>
     </row>
     <row r="43">
@@ -1431,13 +1431,13 @@
         <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>9.6</v>
+        <v>-25.14301682491309</v>
       </c>
       <c r="F43" t="n">
-        <v>6.144359112691384</v>
+        <v>-66.58236766991041</v>
       </c>
       <c r="G43" t="n">
-        <v>10.00249025234235</v>
+        <v>-20.31643463005538</v>
       </c>
     </row>
     <row r="44">
@@ -1454,13 +1454,13 @@
         <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>4.019999999999997</v>
+        <v>-92.05725509669632</v>
       </c>
       <c r="F44" t="n">
-        <v>3.786829348259336</v>
+        <v>-94.85339067887581</v>
       </c>
       <c r="G44" t="n">
-        <v>10.13328012933659</v>
+        <v>-18.74802871737975</v>
       </c>
     </row>
     <row r="45">
@@ -1477,13 +1477,13 @@
         <v>9</v>
       </c>
       <c r="E45" t="n">
-        <v>23.46999999999999</v>
+        <v>141.1832349366698</v>
       </c>
       <c r="F45" t="n">
-        <v>19.13737420114931</v>
+        <v>89.22725732972192</v>
       </c>
       <c r="G45" t="n">
-        <v>10.67009169601467</v>
+        <v>-12.31069232315994</v>
       </c>
     </row>
     <row r="46">
@@ -1500,13 +1500,13 @@
         <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>5.930000000000002</v>
+        <v>-69.15291905742997</v>
       </c>
       <c r="F46" t="n">
-        <v>6.160225710822917</v>
+        <v>-66.39209861472473</v>
       </c>
       <c r="G46" t="n">
-        <v>10.1469960064874</v>
+        <v>-18.58355067584294</v>
       </c>
     </row>
     <row r="47">
@@ -1523,13 +1523,13 @@
         <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>15.21</v>
+        <v>42.13097541607328</v>
       </c>
       <c r="F47" t="n">
-        <v>12.76355785566883</v>
+        <v>12.79373302110769</v>
       </c>
       <c r="G47" t="n">
-        <v>11.09515218024969</v>
+        <v>-7.213452444661463</v>
       </c>
     </row>
     <row r="48">
@@ -1546,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>3.129999999999991</v>
+        <v>-102.7299561830561</v>
       </c>
       <c r="F48" t="n">
-        <v>3.946743671776638</v>
+        <v>-92.93573025828302</v>
       </c>
       <c r="G48" t="n">
-        <v>9.721276720723367</v>
+        <v>-23.6886907698407</v>
       </c>
     </row>
     <row r="49">
@@ -1569,13 +1569,13 @@
         <v>6</v>
       </c>
       <c r="E49" t="n">
-        <v>7.050000000000002</v>
+        <v>-55.72210420717958</v>
       </c>
       <c r="F49" t="n">
-        <v>16.61443139181598</v>
+        <v>58.97263433871598</v>
       </c>
       <c r="G49" t="n">
-        <v>10.65757126675116</v>
+        <v>-12.46083479394913</v>
       </c>
     </row>
     <row r="50">
@@ -1592,13 +1592,13 @@
         <v>9</v>
       </c>
       <c r="E50" t="n">
-        <v>11.91</v>
+        <v>2.558038803728358</v>
       </c>
       <c r="F50" t="n">
-        <v>12.77002731395774</v>
+        <v>12.87131346437533</v>
       </c>
       <c r="G50" t="n">
-        <v>8.142660057648891</v>
+        <v>-42.61914444954908</v>
       </c>
     </row>
     <row r="51">
@@ -1615,13 +1615,13 @@
         <v>18</v>
       </c>
       <c r="E51" t="n">
-        <v>30.90999999999999</v>
+        <v>230.4022192990474</v>
       </c>
       <c r="F51" t="n">
-        <v>22.44442156619429</v>
+        <v>128.8847045269786</v>
       </c>
       <c r="G51" t="n">
-        <v>11.2059542615136</v>
+        <v>-5.88473616030618</v>
       </c>
     </row>
     <row r="52">
@@ -1638,13 +1638,13 @@
         <v>6</v>
       </c>
       <c r="E52" t="n">
-        <v>7.640000000000004</v>
+        <v>-48.64694281285121</v>
       </c>
       <c r="F52" t="n">
-        <v>7.833667563303399</v>
+        <v>-46.32452032604137</v>
       </c>
       <c r="G52" t="n">
-        <v>10.4431385030695</v>
+        <v>-15.03226938933829</v>
       </c>
     </row>
     <row r="53">
@@ -1661,13 +1661,13 @@
         <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>8.690000000000001</v>
+        <v>-36.05555389074151</v>
       </c>
       <c r="F53" t="n">
-        <v>9.477449130717273</v>
+        <v>-26.6126222133716</v>
       </c>
       <c r="G53" t="n">
-        <v>9.849921832394889</v>
+        <v>-22.14600445176034</v>
       </c>
     </row>
     <row r="54">
@@ -1684,13 +1684,13 @@
         <v>4</v>
       </c>
       <c r="E54" t="n">
-        <v>8.35</v>
+        <v>-40.13276554171039</v>
       </c>
       <c r="F54" t="n">
-        <v>6.68425854270056</v>
+        <v>-60.1080022393667</v>
       </c>
       <c r="G54" t="n">
-        <v>9.786263055669961</v>
+        <v>-22.90938770514064</v>
       </c>
     </row>
     <row r="55">
@@ -1707,13 +1707,13 @@
         <v>4</v>
       </c>
       <c r="E55" t="n">
-        <v>21.13000000000001</v>
+        <v>113.1224253388254</v>
       </c>
       <c r="F55" t="n">
-        <v>16.54895873844152</v>
+        <v>58.18749944119192</v>
       </c>
       <c r="G55" t="n">
-        <v>25.76683338345747</v>
+        <v>168.726399146573</v>
       </c>
     </row>
     <row r="56">
@@ -1730,13 +1730,13 @@
         <v>7</v>
       </c>
       <c r="E56" t="n">
-        <v>12.19</v>
+        <v>5.915742516290948</v>
       </c>
       <c r="F56" t="n">
-        <v>8.35088345810469</v>
+        <v>-40.1221712897175</v>
       </c>
       <c r="G56" t="n">
-        <v>10.0558307584005</v>
+        <v>-19.67678600426458</v>
       </c>
     </row>
     <row r="57">
@@ -1753,13 +1753,13 @@
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>10.02</v>
+        <v>-20.10646125606918</v>
       </c>
       <c r="F57" t="n">
-        <v>13.7671059041833</v>
+        <v>24.82807947907903</v>
       </c>
       <c r="G57" t="n">
-        <v>10.98629662685383</v>
+        <v>-8.518826358126987</v>
       </c>
     </row>
     <row r="58">
@@ -1776,13 +1776,13 @@
         <v>22</v>
       </c>
       <c r="E58" t="n">
-        <v>5.940000000000002</v>
+        <v>-69.03300106769558</v>
       </c>
       <c r="F58" t="n">
-        <v>4.746840877387807</v>
+        <v>-83.34112540938452</v>
       </c>
       <c r="G58" t="n">
-        <v>4.431996218556417</v>
+        <v>-87.11667926595116</v>
       </c>
     </row>
     <row r="59">
@@ -1799,13 +1799,13 @@
         <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>22.93</v>
+        <v>134.7076634910134</v>
       </c>
       <c r="F59" t="n">
-        <v>30.2645481565067</v>
+        <v>222.6620905448409</v>
       </c>
       <c r="G59" t="n">
-        <v>12.58706620269124</v>
+        <v>10.67728059811068</v>
       </c>
     </row>
     <row r="60">
@@ -1822,13 +1822,13 @@
         <v>18</v>
       </c>
       <c r="E60" t="n">
-        <v>8.450000000000003</v>
+        <v>-38.93358564436657</v>
       </c>
       <c r="F60" t="n">
-        <v>7.319949888428839</v>
+        <v>-52.48491941223898</v>
       </c>
       <c r="G60" t="n">
-        <v>9.84538801713985</v>
+        <v>-22.20037305288149</v>
       </c>
     </row>
     <row r="61">
@@ -1845,13 +1845,13 @@
         <v>35</v>
       </c>
       <c r="E61" t="n">
-        <v>6.040000000000005</v>
+        <v>-67.83382117035177</v>
       </c>
       <c r="F61" t="n">
-        <v>5.123446927550392</v>
+        <v>-78.82494136365435</v>
       </c>
       <c r="G61" t="n">
-        <v>8.495080472161714</v>
+        <v>-38.39298968457567</v>
       </c>
     </row>
     <row r="62">
@@ -1868,13 +1868,13 @@
         <v>8</v>
       </c>
       <c r="E62" t="n">
-        <v>6.609999999999999</v>
+        <v>-60.99849575549226</v>
       </c>
       <c r="F62" t="n">
-        <v>4.218416547067421</v>
+        <v>-89.67788375126011</v>
       </c>
       <c r="G62" t="n">
-        <v>9.560427643578798</v>
+        <v>-25.61756056802136</v>
       </c>
     </row>
     <row r="63">
@@ -1891,13 +1891,13 @@
         <v>13</v>
       </c>
       <c r="E63" t="n">
-        <v>19.33999999999999</v>
+        <v>91.65710517637146</v>
       </c>
       <c r="F63" t="n">
-        <v>22.28325264713823</v>
+        <v>126.951999248892</v>
       </c>
       <c r="G63" t="n">
-        <v>10.76181945939139</v>
+        <v>-11.21071142446326</v>
       </c>
     </row>
     <row r="64">
@@ -1914,13 +1914,13 @@
         <v>4</v>
       </c>
       <c r="E64" t="n">
-        <v>19.94999999999999</v>
+        <v>98.97210255016851</v>
       </c>
       <c r="F64" t="n">
-        <v>23.96395963173078</v>
+        <v>147.1066995413788</v>
       </c>
       <c r="G64" t="n">
-        <v>10.26811887996929</v>
+        <v>-17.13106952596294</v>
       </c>
     </row>
     <row r="65">
@@ -1937,13 +1937,13 @@
         <v>7</v>
       </c>
       <c r="E65" t="n">
-        <v>7.540000000000003</v>
+        <v>-49.84612271019502</v>
       </c>
       <c r="F65" t="n">
-        <v>5.262602089267543</v>
+        <v>-77.15622063822603</v>
       </c>
       <c r="G65" t="n">
-        <v>9.938473292447705</v>
+        <v>-21.08411314400256</v>
       </c>
     </row>
     <row r="66">
@@ -1960,13 +1960,13 @@
         <v>23</v>
       </c>
       <c r="E66" t="n">
-        <v>11.33</v>
+        <v>-4.397204600865596</v>
       </c>
       <c r="F66" t="n">
-        <v>10.92706530355514</v>
+        <v>-9.229116480055588</v>
       </c>
       <c r="G66" t="n">
-        <v>10.73464546888584</v>
+        <v>-11.53657645591201</v>
       </c>
     </row>
     <row r="67">
@@ -1983,13 +1983,13 @@
         <v>15</v>
       </c>
       <c r="E67" t="n">
-        <v>14.42</v>
+        <v>32.65745422705736</v>
       </c>
       <c r="F67" t="n">
-        <v>9.378583863097148</v>
+        <v>-27.79819462812728</v>
       </c>
       <c r="G67" t="n">
-        <v>11.60272409289393</v>
+        <v>-1.126752103668354</v>
       </c>
     </row>
     <row r="68">
@@ -2006,13 +2006,13 @@
         <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>4.22</v>
+        <v>-89.65889530200873</v>
       </c>
       <c r="F68" t="n">
-        <v>3.077357650494594</v>
+        <v>-103.3612326558143</v>
       </c>
       <c r="G68" t="n">
-        <v>10.36153075319</v>
+        <v>-16.0108931205679</v>
       </c>
     </row>
     <row r="69">
@@ -2029,13 +2029,13 @@
         <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>10.66</v>
+        <v>-12.43170991306896</v>
       </c>
       <c r="F69" t="n">
-        <v>8.40342197699861</v>
+        <v>-39.49213993277944</v>
       </c>
       <c r="G69" t="n">
-        <v>10.19529166391152</v>
+        <v>-18.00439886072283</v>
       </c>
     </row>
     <row r="70">
@@ -2052,13 +2052,13 @@
         <v>7</v>
       </c>
       <c r="E70" t="n">
-        <v>8.17</v>
+        <v>-42.29128935692921</v>
       </c>
       <c r="F70" t="n">
-        <v>7.981763847793766</v>
+        <v>-44.54857945371982</v>
       </c>
       <c r="G70" t="n">
-        <v>10.73216239408549</v>
+        <v>-11.5663529897538</v>
       </c>
     </row>
     <row r="71">
@@ -2075,13 +2075,13 @@
         <v>5</v>
       </c>
       <c r="E71" t="n">
-        <v>3.259999999999987</v>
+        <v>-101.1710223165092</v>
       </c>
       <c r="F71" t="n">
-        <v>4.926591577381197</v>
+        <v>-81.18559114972905</v>
       </c>
       <c r="G71" t="n">
-        <v>9.878914220810698</v>
+        <v>-21.79833355811814</v>
       </c>
     </row>
     <row r="72">
@@ -2098,13 +2098,13 @@
         <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>5.3</v>
+        <v>-76.70775241069585</v>
       </c>
       <c r="F72" t="n">
-        <v>4.512378225643952</v>
+        <v>-86.152754395876</v>
       </c>
       <c r="G72" t="n">
-        <v>9.645595061533994</v>
+        <v>-24.59625001281589</v>
       </c>
     </row>
     <row r="73">
@@ -2121,13 +2121,13 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>3.380000000000001</v>
+        <v>-99.73200643969651</v>
       </c>
       <c r="F73" t="n">
-        <v>6.582390577696118</v>
+        <v>-61.32958239753316</v>
       </c>
       <c r="G73" t="n">
-        <v>10.54057296255257</v>
+        <v>-13.86385493813178</v>
       </c>
     </row>
     <row r="74">
@@ -2144,13 +2144,13 @@
         <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>12.02</v>
+        <v>3.877136690806509</v>
       </c>
       <c r="F74" t="n">
-        <v>12.55701909529552</v>
+        <v>10.31696172648787</v>
       </c>
       <c r="G74" t="n">
-        <v>10.417729794175</v>
+        <v>-15.33696551857583</v>
       </c>
     </row>
     <row r="75">
@@ -2167,13 +2167,13 @@
         <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>4.190000000000008</v>
+        <v>-90.01864927121174</v>
       </c>
       <c r="F75" t="n">
-        <v>4.599360394091005</v>
+        <v>-85.10968171758523</v>
       </c>
       <c r="G75" t="n">
-        <v>9.991440397089114</v>
+        <v>-20.44894227293774</v>
       </c>
     </row>
     <row r="76">
@@ -2190,13 +2190,13 @@
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>3.769999999999993</v>
+        <v>-95.05520484005584</v>
       </c>
       <c r="F76" t="n">
-        <v>3.874973704822625</v>
+        <v>-93.79638127432582</v>
       </c>
       <c r="G76" t="n">
-        <v>9.812692722298388</v>
+        <v>-22.59244845599758</v>
       </c>
     </row>
     <row r="77">
@@ -2213,13 +2213,13 @@
         <v>15</v>
       </c>
       <c r="E77" t="n">
-        <v>10.82</v>
+        <v>-10.5130220773189</v>
       </c>
       <c r="F77" t="n">
-        <v>9.547886300064459</v>
+        <v>-25.76795383830215</v>
       </c>
       <c r="G77" t="n">
-        <v>9.604274295031635</v>
+        <v>-25.09176033814056</v>
       </c>
     </row>
     <row r="78">
@@ -2236,13 +2236,13 @@
         <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>4.299999999999994</v>
+        <v>-88.69955138413376</v>
       </c>
       <c r="F78" t="n">
-        <v>6.575418742779885</v>
+        <v>-61.41318724032462</v>
       </c>
       <c r="G78" t="n">
-        <v>9.918161291481013</v>
+        <v>-21.3276905763434</v>
       </c>
     </row>
     <row r="79">
@@ -2259,13 +2259,13 @@
         <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>7.050000000000007</v>
+        <v>-55.72210420717953</v>
       </c>
       <c r="F79" t="n">
-        <v>6.768971290408732</v>
+        <v>-59.09214399836273</v>
       </c>
       <c r="G79" t="n">
-        <v>10.15598930977367</v>
+        <v>-18.47570479072681</v>
       </c>
     </row>
     <row r="80">
@@ -2282,13 +2282,13 @@
         <v>51</v>
       </c>
       <c r="E80" t="n">
-        <v>42.44</v>
+        <v>368.667661462786</v>
       </c>
       <c r="F80" t="n">
-        <v>47.99758228935445</v>
+        <v>435.3130710550631</v>
       </c>
       <c r="G80" t="n">
-        <v>11.8153098252543</v>
+        <v>1.422533263418263</v>
       </c>
     </row>
     <row r="81">
@@ -2305,13 +2305,13 @@
         <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>5.329999999999999</v>
+        <v>-76.34799844149272</v>
       </c>
       <c r="F81" t="n">
-        <v>7.969907007525714</v>
+        <v>-44.69076429867445</v>
       </c>
       <c r="G81" t="n">
-        <v>9.891887167532445</v>
+        <v>-21.64276458893782</v>
       </c>
     </row>
     <row r="82">
@@ -2328,13 +2328,13 @@
         <v>13</v>
       </c>
       <c r="E82" t="n">
-        <v>9.520000000000001</v>
+        <v>-26.1023607427881</v>
       </c>
       <c r="F82" t="n">
-        <v>10.82931147012917</v>
+        <v>-10.40136079938273</v>
       </c>
       <c r="G82" t="n">
-        <v>10.16393563637105</v>
+        <v>-18.38041403959372</v>
       </c>
     </row>
     <row r="83">
@@ -2351,13 +2351,13 @@
         <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>2.519999999999985</v>
+        <v>-110.0449535568532</v>
       </c>
       <c r="F83" t="n">
-        <v>1.192441227073076</v>
+        <v>-125.9647714872166</v>
       </c>
       <c r="G83" t="n">
-        <v>9.710884129204965</v>
+        <v>-23.81331663814244</v>
       </c>
     </row>
     <row r="84">
@@ -2374,13 +2374,13 @@
         <v>9</v>
       </c>
       <c r="E84" t="n">
-        <v>5.139999999999993</v>
+        <v>-78.62644024644598</v>
       </c>
       <c r="F84" t="n">
-        <v>4.898307918175738</v>
+        <v>-81.52476310515414</v>
       </c>
       <c r="G84" t="n">
-        <v>9.994711897300366</v>
+        <v>-20.40971110006284</v>
       </c>
     </row>
     <row r="85">
@@ -2397,13 +2397,13 @@
         <v>9</v>
       </c>
       <c r="E85" t="n">
-        <v>5.559999999999998</v>
+        <v>-73.58988467760203</v>
       </c>
       <c r="F85" t="n">
-        <v>9.228401122938557</v>
+        <v>-29.59915585738916</v>
       </c>
       <c r="G85" t="n">
-        <v>10.41827178974795</v>
+        <v>-15.33046601662046</v>
       </c>
     </row>
     <row r="86">
@@ -2420,13 +2420,13 @@
         <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>4.950000000000003</v>
+        <v>-80.90488205139906</v>
       </c>
       <c r="F86" t="n">
-        <v>4.283511516008033</v>
+        <v>-88.8972779695421</v>
       </c>
       <c r="G86" t="n">
-        <v>10.03105525452102</v>
+        <v>-19.97388886625289</v>
       </c>
     </row>
     <row r="87">
@@ -2443,13 +2443,13 @@
         <v>10</v>
       </c>
       <c r="E87" t="n">
-        <v>7.15</v>
+        <v>-54.52292430983582</v>
       </c>
       <c r="F87" t="n">
-        <v>9.505378659058431</v>
+        <v>-26.2776969240815</v>
       </c>
       <c r="G87" t="n">
-        <v>9.857462598482774</v>
+        <v>-22.05557710072871</v>
       </c>
     </row>
     <row r="88">
@@ -2466,13 +2466,13 @@
         <v>11</v>
       </c>
       <c r="E88" t="n">
-        <v>24.46999999999998</v>
+        <v>153.1750339101076</v>
       </c>
       <c r="F88" t="n">
-        <v>28.02379105643596</v>
+        <v>195.7913818524892</v>
       </c>
       <c r="G88" t="n">
-        <v>11.03545540389885</v>
+        <v>-7.929324186023018</v>
       </c>
     </row>
     <row r="89">
@@ -2489,13 +2489,13 @@
         <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>3.410000000000004</v>
+        <v>-99.37225247049334</v>
       </c>
       <c r="F89" t="n">
-        <v>1.074624136075492</v>
+        <v>-127.3776103580948</v>
       </c>
       <c r="G89" t="n">
-        <v>9.643305362381808</v>
+        <v>-24.62370762475856</v>
       </c>
     </row>
     <row r="90">
@@ -2512,13 +2512,13 @@
         <v>17</v>
       </c>
       <c r="E90" t="n">
-        <v>7.290000000000004</v>
+        <v>-52.84407245355447</v>
       </c>
       <c r="F90" t="n">
-        <v>8.285747396484556</v>
+        <v>-40.90326984658761</v>
       </c>
       <c r="G90" t="n">
-        <v>10.423195603614</v>
+        <v>-15.27142063055613</v>
       </c>
     </row>
     <row r="91">
@@ -2535,13 +2535,13 @@
         <v>7</v>
       </c>
       <c r="E91" t="n">
-        <v>5.53</v>
+        <v>-73.94963864680514</v>
       </c>
       <c r="F91" t="n">
-        <v>4.255410314728901</v>
+        <v>-89.23426192619357</v>
       </c>
       <c r="G91" t="n">
-        <v>9.493916990239219</v>
+        <v>-26.41514295246162</v>
       </c>
     </row>
     <row r="92">
@@ -2558,13 +2558,13 @@
         <v>18</v>
       </c>
       <c r="E92" t="n">
-        <v>5.53</v>
+        <v>-73.94963864680514</v>
       </c>
       <c r="F92" t="n">
-        <v>7.969907007525714</v>
+        <v>-44.69076429867445</v>
       </c>
       <c r="G92" t="n">
-        <v>9.895726947751097</v>
+        <v>-21.59671871645357</v>
       </c>
     </row>
     <row r="93">
@@ -2581,13 +2581,13 @@
         <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>5.260000000000001</v>
+        <v>-77.18742436963335</v>
       </c>
       <c r="F93" t="n">
-        <v>6.432996813731009</v>
+        <v>-63.12108238288798</v>
       </c>
       <c r="G93" t="n">
-        <v>10.08552657004623</v>
+        <v>-19.32067980065586</v>
       </c>
     </row>
     <row r="94">
@@ -2604,13 +2604,13 @@
         <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>12.26</v>
+        <v>6.755168444431593</v>
       </c>
       <c r="F94" t="n">
-        <v>9.48867627588336</v>
+        <v>-26.47798854549428</v>
       </c>
       <c r="G94" t="n">
-        <v>10.74616506227311</v>
+        <v>-11.39843580775603</v>
       </c>
     </row>
     <row r="95">
@@ -2627,13 +2627,13 @@
         <v>8</v>
       </c>
       <c r="E95" t="n">
-        <v>18.66000000000001</v>
+        <v>83.50268187443395</v>
       </c>
       <c r="F95" t="n">
-        <v>12.80876068730168</v>
+        <v>13.33579629107891</v>
       </c>
       <c r="G95" t="n">
-        <v>10.2125899088182</v>
+        <v>-17.79696178520865</v>
       </c>
     </row>
     <row r="96">
@@ -2650,13 +2650,13 @@
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>10.05</v>
+        <v>-19.74670728686604</v>
       </c>
       <c r="F96" t="n">
-        <v>14.94687850335972</v>
+        <v>38.97567532277289</v>
       </c>
       <c r="G96" t="n">
-        <v>9.84496109052052</v>
+        <v>-22.20549267107689</v>
       </c>
     </row>
     <row r="97">
@@ -2673,13 +2673,13 @@
         <v>10</v>
       </c>
       <c r="E97" t="n">
-        <v>13.29</v>
+        <v>19.10672138707261</v>
       </c>
       <c r="F97" t="n">
-        <v>9.432327569001353</v>
+        <v>-27.15371091083647</v>
       </c>
       <c r="G97" t="n">
-        <v>10.80290438514025</v>
+        <v>-10.7180292540443</v>
       </c>
     </row>
     <row r="98">
@@ -2696,13 +2696,13 @@
         <v>12</v>
       </c>
       <c r="E98" t="n">
-        <v>9.35</v>
+        <v>-28.14096656827254</v>
       </c>
       <c r="F98" t="n">
-        <v>10.0644233449968</v>
+        <v>-19.57374543313993</v>
       </c>
       <c r="G98" t="n">
-        <v>10.13712985513973</v>
+        <v>-18.7018635794457</v>
       </c>
     </row>
     <row r="99">
@@ -2719,13 +2719,13 @@
         <v>25</v>
       </c>
       <c r="E99" t="n">
-        <v>5.300000000000002</v>
+        <v>-76.70775241069583</v>
       </c>
       <c r="F99" t="n">
-        <v>8.888339882699839</v>
+        <v>-33.67710188898981</v>
       </c>
       <c r="G99" t="n">
-        <v>9.993601746970279</v>
+        <v>-20.42302379965155</v>
       </c>
     </row>
     <row r="100">
@@ -2742,13 +2742,13 @@
         <v>10</v>
       </c>
       <c r="E100" t="n">
-        <v>29.57000000000001</v>
+        <v>214.333208674641</v>
       </c>
       <c r="F100" t="n">
-        <v>21.90351512528658</v>
+        <v>122.3982632241756</v>
       </c>
       <c r="G100" t="n">
-        <v>12.61833594638177</v>
+        <v>11.05226107839837</v>
       </c>
     </row>
     <row r="101">
@@ -2765,13 +2765,13 @@
         <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>10.57</v>
+        <v>-13.51097182067836</v>
       </c>
       <c r="F101" t="n">
-        <v>8.141689079120686</v>
+        <v>-42.63078822886685</v>
       </c>
       <c r="G101" t="n">
-        <v>10.08553085859856</v>
+        <v>-19.32062837319843</v>
       </c>
     </row>
     <row r="102">
@@ -2788,13 +2788,13 @@
         <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>41.71</v>
+        <v>359.9136482121763</v>
       </c>
       <c r="F102" t="n">
-        <v>54.09401191679918</v>
+        <v>508.4202296030908</v>
       </c>
       <c r="G102" t="n">
-        <v>10.69283454781142</v>
+        <v>-12.03796461633071</v>
       </c>
     </row>
     <row r="103">
@@ -2811,13 +2811,13 @@
         <v>3</v>
       </c>
       <c r="E103" t="n">
-        <v>7.420000000000004</v>
+        <v>-51.28513858700755</v>
       </c>
       <c r="F103" t="n">
-        <v>5.196183512663127</v>
+        <v>-77.95269885696808</v>
       </c>
       <c r="G103" t="n">
-        <v>9.772623818029937</v>
+        <v>-23.07294670107078</v>
       </c>
     </row>
   </sheetData>
